--- a/base.xlsx
+++ b/base.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -773,11 +773,11 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>94.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
